--- a/Figure3_source.xlsx
+++ b/Figure3_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jminich/Desktop/NSF_postdoc/Manuscript-FMP/supplemental/source-data/main-figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6E3AF3-0335-C546-956F-9F24A3C6B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C52D76B-B209-7748-9273-C5887817CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="500" windowWidth="17440" windowHeight="16220" activeTab="5" xr2:uid="{2C3AB6EC-121D-5E43-BE65-C4C39C23FE59}"/>
+    <workbookView xWindow="11360" yWindow="500" windowWidth="17440" windowHeight="16220" activeTab="3" xr2:uid="{2C3AB6EC-121D-5E43-BE65-C4C39C23FE59}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure3a" sheetId="1" r:id="rId1"/>
@@ -4789,10 +4789,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB65001-5504-4349-9126-CD6FEC91B32D}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4816,1285 +4816,1285 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
-        <v>3.7102020150000001</v>
+        <v>7.1625130099999996</v>
       </c>
       <c r="C2" s="1">
-        <v>4.1334430979999999</v>
+        <v>3.980105</v>
       </c>
       <c r="D2" s="1">
-        <v>6.4098048439999999</v>
+        <v>6.5177879799999996</v>
       </c>
       <c r="E2" s="1">
-        <v>6.030042431</v>
+        <v>3.9863170700000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
-        <v>6.6496423589999996</v>
+        <v>5.9862258199999996</v>
       </c>
       <c r="C3" s="1">
-        <v>4.3331852079999997</v>
+        <v>5.7438007100000004</v>
       </c>
       <c r="D3" s="1">
-        <v>2.9831750719999999</v>
+        <v>5.2029721100000001</v>
       </c>
       <c r="E3" s="1">
-        <v>2.4899584789999998</v>
+        <v>2.7872203099999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>7.8339491399999996</v>
+        <v>3.6648014400000002</v>
       </c>
       <c r="C4" s="1">
-        <v>4.805820175</v>
+        <v>4.1280767000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>5.48277357</v>
+        <v>6.3667267900000004</v>
       </c>
       <c r="E4" s="1">
-        <v>5.0506774339999998</v>
+        <v>6.0020573099999996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <v>7.2504022399999997</v>
+        <v>6.6071058799999998</v>
       </c>
       <c r="C5" s="1">
-        <v>4.3521632160000001</v>
+        <v>4.2902394900000003</v>
       </c>
       <c r="D5" s="1">
-        <v>4.9140521189999999</v>
+        <v>2.9371652199999998</v>
       </c>
       <c r="E5" s="1">
-        <v>4.9699747299999997</v>
+        <v>2.4437549299999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
-        <v>5.9765572169999999</v>
+        <v>3.9944207</v>
       </c>
       <c r="C6" s="1">
-        <v>5.5986975120000002</v>
+        <v>1.8821153399999999</v>
       </c>
       <c r="D6" s="1">
-        <v>4.8804820299999996</v>
+        <v>5.4389421000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>4.9731186129999996</v>
+        <v>5.0064512800000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
-        <v>2.4885507169999999</v>
+        <v>2.0124062999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1.7781512500000001</v>
+        <v>7.46614428</v>
       </c>
       <c r="D7" s="1">
-        <v>3.9971678709999998</v>
+        <v>3.61814561</v>
       </c>
       <c r="E7" s="1">
-        <v>2.1335389079999998</v>
+        <v>3.1331187100000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
-        <v>4.9380090790000004</v>
+        <v>4.8264725200000003</v>
       </c>
       <c r="C8" s="1">
-        <v>4.3895027539999996</v>
+        <v>4.5089053400000001</v>
       </c>
       <c r="D8" s="1">
-        <v>5.566325516</v>
+        <v>6.79290649</v>
       </c>
       <c r="E8" s="1">
-        <v>6.5266225100000002</v>
+        <v>5.7137626299999997</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
-        <v>2.6674529530000002</v>
+        <v>4.7288491400000003</v>
       </c>
       <c r="C9" s="1">
-        <v>6.5391840309999996</v>
+        <v>7.1850528300000001</v>
       </c>
       <c r="D9" s="1">
-        <v>3.917085191</v>
+        <v>6.1800943899999998</v>
       </c>
       <c r="E9" s="1">
-        <v>5.0851906470000001</v>
+        <v>6.5583022900000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
-        <v>4.8490629859999999</v>
+        <v>7.8409711199999998</v>
       </c>
       <c r="C10" s="1">
-        <v>2.945960704</v>
+        <v>4.7952452699999997</v>
       </c>
       <c r="D10" s="1">
-        <v>4.7985125330000002</v>
+        <v>4.9239865399999996</v>
       </c>
       <c r="E10" s="1">
-        <v>6.9080366599999996</v>
+        <v>5.49223806</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
-        <v>6.0233903419999999</v>
+        <v>7.25213573</v>
       </c>
       <c r="C11" s="1">
-        <v>6.2180313370000002</v>
+        <v>4.34474173</v>
       </c>
       <c r="D11" s="1">
-        <v>6.3043043619999999</v>
+        <v>4.8783737299999999</v>
       </c>
       <c r="E11" s="1">
-        <v>3.0972573099999998</v>
+        <v>4.97725463</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
-        <v>3.206556044</v>
+        <v>6.6350481200000004</v>
       </c>
       <c r="C12" s="1">
-        <v>4.5914986850000004</v>
+        <v>4.0381976899999996</v>
       </c>
       <c r="D12" s="1">
-        <v>5.0450764169999998</v>
+        <v>6.8903125200000002</v>
       </c>
       <c r="E12" s="1">
-        <v>5.2473250220000001</v>
+        <v>4.9718660799999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
-        <v>4.690027647</v>
+        <v>7.8303881999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>5.1924085360000003</v>
+        <v>5.4175381900000001</v>
       </c>
       <c r="D13" s="1">
-        <v>6.1622476800000001</v>
+        <v>6.1011230400000001</v>
       </c>
       <c r="E13" s="1">
-        <v>8.2885085079999996</v>
+        <v>7.2315815600000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
-        <v>6.5676078609999999</v>
+        <v>1.66711148</v>
       </c>
       <c r="C14" s="1">
-        <v>7.5877664429999996</v>
+        <v>5.0333408899999998</v>
       </c>
       <c r="D14" s="1">
-        <v>4.0882424339999996</v>
+        <v>4.3584799099999998</v>
       </c>
       <c r="E14" s="1">
-        <v>2.127104798</v>
+        <v>4.45162396</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
-        <v>7.0577227640000002</v>
+        <v>6.7149254699999998</v>
       </c>
       <c r="C15" s="1">
-        <v>7.0970371209999996</v>
+        <v>6.1033698300000001</v>
       </c>
       <c r="D15" s="1">
-        <v>4.944176584</v>
+        <v>3.7602761199999999</v>
       </c>
       <c r="E15" s="1">
-        <v>2.6589648430000001</v>
+        <v>7.4849396099999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
-        <v>5.2141653950000002</v>
+        <v>2.3991795300000001</v>
       </c>
       <c r="C16" s="1">
-        <v>3.410270964</v>
+        <v>3.8977907300000001</v>
       </c>
       <c r="D16" s="1">
-        <v>4.008727887</v>
+        <v>5.77818656</v>
       </c>
       <c r="E16" s="1">
-        <v>4.6017558789999997</v>
+        <v>4.9365420699999998</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
-        <v>0.47712125500000002</v>
+        <v>3.5655544899999998</v>
       </c>
       <c r="C17" s="1">
-        <v>5.1702118270000001</v>
+        <v>3.3094867099999998</v>
       </c>
       <c r="D17" s="1">
-        <v>6.2070556410000002</v>
+        <v>4.6419339600000002</v>
       </c>
       <c r="E17" s="1">
-        <v>3.9562164690000001</v>
+        <v>4.8083596399999999</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
-        <v>4.4042177450000004</v>
+        <v>7.1848885200000003</v>
       </c>
       <c r="C18" s="1">
-        <v>4.8752117930000001</v>
+        <v>5.4960253999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>6.0353997169999998</v>
+        <v>2.9265777000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>1.7481880270000001</v>
+        <v>4.7467960500000004</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
-        <v>2.8512583490000001</v>
+        <v>5.8353171699999997</v>
       </c>
       <c r="C19" s="1">
-        <v>2.413299764</v>
+        <v>3.9369640299999999</v>
       </c>
       <c r="D19" s="1">
-        <v>4.2880031599999997</v>
+        <v>3.98513238</v>
       </c>
       <c r="E19" s="1">
-        <v>4.8529981539999998</v>
+        <v>7.6366804100000003</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
-        <v>6.0322604609999999</v>
+        <v>7.8258470999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>5.3656002880000004</v>
+        <v>6.39378154</v>
       </c>
       <c r="D20" s="1">
-        <v>5.3753874059999998</v>
+        <v>5.8037184799999997</v>
       </c>
       <c r="E20" s="1">
-        <v>6.0393946850000004</v>
+        <v>3.11232737</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
-        <v>3.125481266</v>
+        <v>6.8918163799999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1.908485019</v>
+        <v>2.6785483600000002</v>
       </c>
       <c r="D21" s="1">
-        <v>4.1699975370000004</v>
+        <v>8.1104513199999992</v>
       </c>
       <c r="E21" s="1">
-        <v>3.127104798</v>
+        <v>3.6280060500000002</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
-        <v>6.7544503220000003</v>
+        <v>7.8824529400000003</v>
       </c>
       <c r="C22" s="1">
-        <v>3.3257208579999999</v>
+        <v>8.0353584100000006</v>
       </c>
       <c r="D22" s="1">
-        <v>3.3825573219999998</v>
+        <v>3.29053204</v>
       </c>
       <c r="E22" s="1">
-        <v>3.1792644640000001</v>
+        <v>7.2941342899999997</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
-        <v>2.307496038</v>
+        <v>2.9371298800000001</v>
       </c>
       <c r="C23" s="1">
-        <v>4.718019795</v>
+        <v>6.4035652199999999</v>
       </c>
       <c r="D23" s="1">
-        <v>3.6640775900000002</v>
+        <v>5.7247037900000004</v>
       </c>
       <c r="E23" s="1">
-        <v>4.8524738940000001</v>
+        <v>5.3308647499999999</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
-        <v>3.118595365</v>
+        <v>4.1268755199999996</v>
       </c>
       <c r="C24" s="1">
-        <v>3.4312028849999998</v>
+        <v>4.4868370200000003</v>
       </c>
       <c r="D24" s="1">
-        <v>4.6867166869999997</v>
+        <v>4.3902932999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>6.8667484510000003</v>
+        <v>3.9408579600000002</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
-        <v>6.449633113</v>
+        <v>1.7965204400000001</v>
       </c>
       <c r="C25" s="1">
-        <v>4.9960079139999998</v>
+        <v>3.18671667</v>
       </c>
       <c r="D25" s="1">
-        <v>5.5996713290000004</v>
+        <v>4.7960293099999998</v>
       </c>
       <c r="E25" s="1">
-        <v>4.1800111190000004</v>
+        <v>6.5001213699999996</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
-        <v>3.5101426990000002</v>
+        <v>5.2482084999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>6.1704744089999997</v>
+        <v>3.7838062400000001</v>
       </c>
       <c r="D26" s="1">
-        <v>1.6434526759999999</v>
+        <v>5.7058074000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>2.8704039049999999</v>
+        <v>5.12750577</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
-        <v>3.8105685290000002</v>
+        <v>6.3437959900000003</v>
       </c>
       <c r="C27" s="1">
-        <v>5.25959149</v>
+        <v>5.0369901500000003</v>
       </c>
       <c r="D27" s="1">
-        <v>3.7473341100000002</v>
+        <v>3.9577909600000001</v>
       </c>
       <c r="E27" s="1">
-        <v>3.1192558890000002</v>
+        <v>2.2680698499999998</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
-        <v>5.5675051209999999</v>
+        <v>5.65400627</v>
       </c>
       <c r="C28" s="1">
-        <v>5.6402866070000002</v>
+        <v>5.12907081</v>
       </c>
       <c r="D28" s="1">
-        <v>4.9980456269999998</v>
+        <v>4.7895343099999996</v>
       </c>
       <c r="E28" s="1">
-        <v>4.5115224129999998</v>
+        <v>2.1011530600000001</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
-        <v>4.0382624070000004</v>
+        <v>2.3291473100000002</v>
       </c>
       <c r="C29" s="1">
-        <v>6.6484720350000002</v>
+        <v>7.9001176700000002</v>
       </c>
       <c r="D29" s="1">
-        <v>5.3726948009999997</v>
+        <v>3.98242881</v>
       </c>
       <c r="E29" s="1">
-        <v>3.3548764229999999</v>
+        <v>8.69422301</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
-        <v>3.5684364139999998</v>
+        <v>5.9341315100000003</v>
       </c>
       <c r="C30" s="1">
-        <v>7.2447198009999996</v>
+        <v>4.3141880700000002</v>
       </c>
       <c r="D30" s="1">
-        <v>4.773010749</v>
+        <v>7.8293807700000002</v>
       </c>
       <c r="E30" s="1">
-        <v>6.1037938040000004</v>
+        <v>7.6961391199999998</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
-        <v>6.8057515080000002</v>
+        <v>8.5653853899999994</v>
       </c>
       <c r="C31" s="1">
-        <v>4.5921656500000001</v>
+        <v>5.5634642200000002</v>
       </c>
       <c r="D31" s="1">
-        <v>6.0379186850000002</v>
+        <v>8.6785014100000009</v>
       </c>
       <c r="E31" s="1">
-        <v>5.5078356399999997</v>
+        <v>6.5328220100000003</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
-        <v>2.951337519</v>
+        <v>6.9076666199999996</v>
       </c>
       <c r="C32" s="1">
-        <v>4.6329530559999998</v>
+        <v>1.74974976</v>
       </c>
       <c r="D32" s="1">
-        <v>7.0518575910000001</v>
+        <v>5.5686281700000002</v>
       </c>
       <c r="E32" s="1">
-        <v>2.9273703630000001</v>
+        <v>5.10968862</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
-        <v>4.9382394449999998</v>
+        <v>2.4826180299999998</v>
       </c>
       <c r="C33" s="1">
-        <v>4.5583244939999998</v>
+        <v>4.8009315299999997</v>
       </c>
       <c r="D33" s="1">
-        <v>4.5047154669999996</v>
+        <v>3.8890836000000002</v>
       </c>
       <c r="E33" s="1">
-        <v>5.893885987</v>
+        <v>6.8715697799999997</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
-        <v>1.716003344</v>
+        <v>4.9355539400000001</v>
       </c>
       <c r="C34" s="1">
-        <v>3.9488040459999998</v>
+        <v>1.99240371</v>
       </c>
       <c r="D34" s="1">
-        <v>5.2153969560000002</v>
+        <v>6.7018197099999997</v>
       </c>
       <c r="E34" s="1">
-        <v>6.5555774690000002</v>
+        <v>6.5411401099999997</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
-        <v>5.3122048690000003</v>
+        <v>3.8657296300000001</v>
       </c>
       <c r="C35" s="1">
-        <v>4.5147203740000004</v>
+        <v>5.4594846400000003</v>
       </c>
       <c r="D35" s="1">
-        <v>2.866877814</v>
+        <v>6.2397514999999997</v>
       </c>
       <c r="E35" s="1">
-        <v>5.4870053790000002</v>
+        <v>5.2006800899999996</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
-        <v>2.9580858490000002</v>
+        <v>6.3702510400000003</v>
       </c>
       <c r="C36" s="1">
-        <v>7.1846667350000004</v>
+        <v>3.3374190700000002</v>
       </c>
       <c r="D36" s="1">
-        <v>6.586921673</v>
+        <v>5.8739883199999996</v>
       </c>
       <c r="E36" s="1">
-        <v>3.1248301490000001</v>
+        <v>2.5586291000000001</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
-        <v>7.4829027979999996</v>
+        <v>5.5289484299999998</v>
       </c>
       <c r="C37" s="1">
-        <v>8.0362266190000007</v>
+        <v>6.2252735699999997</v>
       </c>
       <c r="D37" s="1">
-        <v>3.125481266</v>
+        <v>6.6848553199999996</v>
       </c>
       <c r="E37" s="1">
-        <v>4.3530887649999999</v>
+        <v>4.1759362500000003</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
-        <v>3.4915017659999998</v>
+        <v>3.7584251599999998</v>
       </c>
       <c r="C38" s="1">
-        <v>5.4175663470000002</v>
+        <v>6.5387356800000003</v>
       </c>
       <c r="D38" s="1">
-        <v>6.0261846270000001</v>
+        <v>6.5568435100000002</v>
       </c>
       <c r="E38" s="1">
-        <v>7.5260463660000001</v>
+        <v>7.8515849500000003</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
-        <v>6.4266787660000002</v>
+        <v>6.1484757400000003</v>
       </c>
       <c r="C39" s="1">
-        <v>5.0757622309999997</v>
+        <v>2.9256765100000002</v>
       </c>
       <c r="D39" s="1">
-        <v>6.1775820909999997</v>
+        <v>6.3094980300000003</v>
       </c>
       <c r="E39" s="1">
-        <v>4.9387198149999998</v>
+        <v>5.2391774900000003</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
-        <v>4.0633333589999996</v>
+        <v>7.4008880100000001</v>
       </c>
       <c r="C40" s="1">
-        <v>6.1043815979999998</v>
+        <v>6.1820077800000002</v>
       </c>
       <c r="D40" s="1">
-        <v>8.1056139189999996</v>
+        <v>5.0387453899999999</v>
       </c>
       <c r="E40" s="1">
-        <v>3.6296134449999999</v>
+        <v>8.2473092300000008</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
-        <v>3.580012113</v>
+        <v>4.8385820700000002</v>
       </c>
       <c r="C41" s="1">
-        <v>3.9020573110000001</v>
+        <v>4.5919836199999997</v>
       </c>
       <c r="D41" s="1">
-        <v>6.0984820900000001</v>
+        <v>6.1627652399999997</v>
       </c>
       <c r="E41" s="1">
-        <v>7.290515321</v>
+        <v>2.1232295900000002</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
-        <v>3.9889600700000001</v>
+        <v>6.0194116800000002</v>
       </c>
       <c r="C42" s="1">
-        <v>6.4093449910000002</v>
+        <v>5.1785900099999997</v>
       </c>
       <c r="D42" s="1">
-        <v>4.3629157989999996</v>
+        <v>4.0905074499999996</v>
       </c>
       <c r="E42" s="1">
-        <v>5.3224611910000004</v>
+        <v>2.6507251599999999</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
-        <v>2.7853298350000002</v>
+        <v>3.198604</v>
       </c>
       <c r="C43" s="1">
-        <v>4.4899725339999996</v>
+        <v>7.5893326999999999</v>
       </c>
       <c r="D43" s="1">
-        <v>3.777571805</v>
+        <v>4.9374317599999999</v>
       </c>
       <c r="E43" s="1">
-        <v>3.9301336459999998</v>
+        <v>6.8088523800000003</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
-        <v>4.8285632329999997</v>
+        <v>4.6893840100000004</v>
       </c>
       <c r="C44" s="1">
-        <v>3.2258259909999998</v>
+        <v>5.9158147000000003</v>
       </c>
       <c r="D44" s="1">
-        <v>5.8213156599999998</v>
+        <v>4.0030661299999997</v>
       </c>
       <c r="E44" s="1">
-        <v>6.4919607470000003</v>
+        <v>5.4891139300000003</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
-        <v>4.7302330059999997</v>
+        <v>6.5726321600000004</v>
       </c>
       <c r="C45" s="1">
-        <v>3.7816835850000001</v>
+        <v>2.4156412899999999</v>
       </c>
       <c r="D45" s="1">
-        <v>3.2964457939999998</v>
+        <v>7.7100753400000004</v>
       </c>
       <c r="E45" s="1">
-        <v>2.5365584430000001</v>
+        <v>7.4820915899999996</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
-        <v>7.8812119149999997</v>
+        <v>7.7040912700000002</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>7.1007884800000003</v>
       </c>
       <c r="D46" s="1">
-        <v>5.7305529589999997</v>
+        <v>5.4427602100000003</v>
       </c>
       <c r="E46" s="1">
-        <v>7.8923899779999998</v>
+        <v>4.6021521099999996</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
-        <v>5.978416095</v>
+        <v>7.0647895500000004</v>
       </c>
       <c r="C47" s="1">
-        <v>3.349083169</v>
+        <v>2.9770584800000002</v>
       </c>
       <c r="D47" s="1">
-        <v>4.3801388530000001</v>
+        <v>6.4770753000000001</v>
       </c>
       <c r="E47" s="1">
-        <v>6.81157447</v>
+        <v>3.1058895</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
-        <v>2.6702458529999999</v>
+        <v>3.3353213500000001</v>
       </c>
       <c r="C48" s="1">
-        <v>6.2230416799999997</v>
+        <v>4.7884542799999998</v>
       </c>
       <c r="D48" s="1">
-        <v>4.8061121099999999</v>
+        <v>6.2027675100000002</v>
       </c>
       <c r="E48" s="1">
-        <v>5.4830335569999997</v>
+        <v>4.5443597699999998</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
-        <v>7.8312484419999997</v>
+        <v>7.0599508899999996</v>
       </c>
       <c r="C49" s="1">
-        <v>5.9158908429999997</v>
+        <v>3.8158737999999999</v>
       </c>
       <c r="D49" s="1">
-        <v>5.7041067419999996</v>
+        <v>3.9299184899999999</v>
       </c>
       <c r="E49" s="1">
-        <v>7.523573989</v>
+        <v>5.3534569899999997</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
-        <v>1.6720978580000001</v>
+        <v>2.8542569100000001</v>
       </c>
       <c r="C50" s="1">
-        <v>2.423245874</v>
+        <v>3.4021797899999999</v>
       </c>
       <c r="D50" s="1">
-        <v>6.2335575360000002</v>
+        <v>6.0197160600000004</v>
       </c>
       <c r="E50" s="1">
-        <v>7.4650445650000004</v>
+        <v>7.4240681000000004</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
-        <v>6.712655088</v>
+        <v>7.7973749400000001</v>
       </c>
       <c r="C51" s="1">
-        <v>2.1553360370000001</v>
+        <v>2.1325877499999999</v>
       </c>
       <c r="D51" s="1">
-        <v>6.6845883879999999</v>
+        <v>5.7257150299999999</v>
       </c>
       <c r="E51" s="1">
-        <v>6.1273212429999999</v>
+        <v>6.1472422099999999</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
-        <v>2.4456042029999998</v>
+        <v>6.3602448300000001</v>
       </c>
       <c r="C52" s="1">
-        <v>3.8129133569999998</v>
+        <v>4.7244772299999998</v>
       </c>
       <c r="D52" s="1">
-        <v>6.554964504</v>
+        <v>6.9747162200000004</v>
       </c>
       <c r="E52" s="1">
-        <v>5.5341213360000001</v>
+        <v>3.9546907299999998</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
-        <v>2.9309490309999999</v>
+        <v>6.7827089000000003</v>
       </c>
       <c r="C53" s="1">
-        <v>3.7255849720000001</v>
+        <v>6.3551903100000002</v>
       </c>
       <c r="D53" s="1">
-        <v>7.7090513170000001</v>
+        <v>4.7462840599999998</v>
       </c>
       <c r="E53" s="1">
-        <v>5.4615465460000001</v>
+        <v>6.3250344299999997</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
-        <v>4.1169396469999997</v>
+        <v>4.2540088000000003</v>
       </c>
       <c r="C54" s="1">
-        <v>4.2667489659999998</v>
+        <v>5.3196143100000004</v>
       </c>
       <c r="D54" s="1">
-        <v>5.4378963599999999</v>
+        <v>6.0339269</v>
       </c>
       <c r="E54" s="1">
-        <v>4.1636681539999998</v>
+        <v>6.8726924</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
-        <v>1.785329835</v>
+        <v>5.2111421299999998</v>
       </c>
       <c r="C55" s="1">
-        <v>5.0209658900000003</v>
+        <v>4.0338036900000001</v>
       </c>
       <c r="D55" s="1">
-        <v>6.4792684459999998</v>
+        <v>5.0492313600000003</v>
       </c>
       <c r="E55" s="1">
-        <v>5.0913538709999999</v>
+        <v>7.23657488</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
-        <v>5.2487871119999996</v>
+        <v>3.2321107800000002</v>
       </c>
       <c r="C56" s="1">
-        <v>3.773567049</v>
+        <v>5.2767825500000001</v>
       </c>
       <c r="D56" s="1">
-        <v>7.0162741640000004</v>
+        <v>5.5992565499999998</v>
       </c>
       <c r="E56" s="1">
-        <v>5.6173096920000001</v>
+        <v>5.1078622200000003</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
-        <v>6.3411536760000002</v>
+        <v>6.7638107200000004</v>
       </c>
       <c r="C57" s="1">
-        <v>3.2776092139999999</v>
+        <v>3.6135701</v>
       </c>
       <c r="D57" s="1">
-        <v>5.0462961159999997</v>
+        <v>5.7094943799999998</v>
       </c>
       <c r="E57" s="1">
-        <v>6.6536077349999996</v>
+        <v>6.9493978900000002</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
-        <v>5.5275048780000002</v>
+        <v>4.7712930499999997</v>
       </c>
       <c r="C58" s="1">
-        <v>7.5067539300000004</v>
+        <v>6.2190884500000001</v>
       </c>
       <c r="D58" s="1">
-        <v>5.6218542080000002</v>
+        <v>5.4367852299999999</v>
       </c>
       <c r="E58" s="1">
-        <v>5.6916003890000004</v>
+        <v>3.8644254600000001</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
-        <v>6.1463965949999997</v>
+        <v>5.6317109900000002</v>
       </c>
       <c r="C59" s="1">
-        <v>5.3674509710000002</v>
+        <v>5.9119990600000003</v>
       </c>
       <c r="D59" s="1">
-        <v>4.6448618450000003</v>
+        <v>6.9325889500000004</v>
       </c>
       <c r="E59" s="1">
-        <v>6.1896292539999997</v>
+        <v>4.1033070299999999</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
-        <v>7.4052023680000003</v>
+        <v>6.6721350599999996</v>
       </c>
       <c r="C60" s="1">
-        <v>4.132675849</v>
+        <v>5.3386439299999999</v>
       </c>
       <c r="D60" s="1">
-        <v>4.3154245119999999</v>
+        <v>6.5356196799999999</v>
       </c>
       <c r="E60" s="1">
-        <v>4.3444512240000002</v>
+        <v>2.81730839</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
-        <v>7.6988492710000003</v>
+        <v>4.1756267200000003</v>
       </c>
       <c r="C61" s="1">
-        <v>5.2856923020000002</v>
+        <v>2.1898197100000001</v>
       </c>
       <c r="D61" s="1">
-        <v>5.36362702</v>
+        <v>5.9490200499999997</v>
       </c>
       <c r="E61" s="1">
-        <v>4.0557604649999996</v>
+        <v>5.88998796</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
-        <v>7.0636420600000003</v>
+        <v>4.4169166100000004</v>
       </c>
       <c r="C62" s="1">
-        <v>4.5894245580000002</v>
+        <v>6.08747214</v>
       </c>
       <c r="D62" s="1">
-        <v>6.3473083490000004</v>
+        <v>5.3731889300000004</v>
       </c>
       <c r="E62" s="1">
-        <v>7.2333950209999998</v>
+        <v>6.1807837799999996</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
-        <v>3.342422681</v>
+        <v>1.52205257</v>
       </c>
       <c r="C63" s="1">
-        <v>3.7535830589999999</v>
+        <v>6.0959154599999996</v>
       </c>
       <c r="D63" s="1">
-        <v>6.7923883270000003</v>
+        <v>6.4122036199999997</v>
       </c>
       <c r="E63" s="1">
-        <v>8.6903531259999998</v>
+        <v>4.1835472600000001</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
-        <v>6.777482429</v>
+        <v>5.4862015800000004</v>
       </c>
       <c r="C64" s="1">
-        <v>4.0306806640000001</v>
+        <v>4.8478412000000004</v>
       </c>
       <c r="D64" s="1">
-        <v>4.7488622109999996</v>
+        <v>5.7153761200000002</v>
       </c>
       <c r="E64" s="1">
-        <v>7.6880014340000002</v>
+        <v>6.6980984499999998</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
-        <v>3.2362852769999999</v>
+        <v>4.7327345599999999</v>
       </c>
       <c r="C65" s="1">
-        <v>7.8964465270000002</v>
+        <v>4.3639760799999996</v>
       </c>
       <c r="D65" s="1">
-        <v>3.6683859170000002</v>
+        <v>5.1962860099999997</v>
       </c>
       <c r="E65" s="1">
-        <v>3.979047327</v>
+        <v>7.69153004</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
-        <v>5.3323839169999996</v>
+        <v>5.5955024699999996</v>
       </c>
       <c r="C66" s="1">
-        <v>4.3150882729999998</v>
+        <v>3.4635849400000001</v>
       </c>
       <c r="D66" s="1">
-        <v>4.187689894</v>
+        <v>4.8217573800000002</v>
       </c>
       <c r="E66" s="1">
-        <v>2.8007170779999999</v>
+        <v>6.2124363599999999</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
-        <v>2.7895807119999998</v>
+        <v>2.7848683300000001</v>
       </c>
       <c r="C67" s="1">
-        <v>3.9795938959999999</v>
+        <v>7.6657151700000004</v>
       </c>
       <c r="D67" s="1">
-        <v>3.3174364970000001</v>
+        <v>5.3888401999999997</v>
       </c>
       <c r="E67" s="1">
-        <v>4.7337267650000001</v>
+        <v>3.5377387699999998</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
-        <v>5.2914065939999997</v>
+        <v>5.0431161299999996</v>
       </c>
       <c r="C68" s="1">
-        <v>5.7367820160000003</v>
+        <v>6.5527575300000001</v>
       </c>
       <c r="D68" s="1">
-        <v>6.8900874849999996</v>
+        <v>6.4371052300000002</v>
       </c>
       <c r="E68" s="1">
-        <v>7.6345776699999996</v>
+        <v>5.6781477200000001</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
-        <v>4.765713248</v>
+        <v>7.7771430700000002</v>
       </c>
       <c r="C69" s="1">
-        <v>5.4918783370000002</v>
+        <v>3.9852929000000001</v>
       </c>
       <c r="D69" s="1">
-        <v>7.8273267979999996</v>
+        <v>7.43167898</v>
       </c>
       <c r="E69" s="1">
-        <v>2.278753601</v>
+        <v>4.1168422800000002</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <v>3.6427612030000001</v>
+        <v>6.2632479200000004</v>
       </c>
       <c r="C70" s="1">
-        <v>3.9514346659999999</v>
+        <v>7.2470817199999997</v>
       </c>
       <c r="D70" s="1">
-        <v>8.6755211330000002</v>
+        <v>7.1161231100000002</v>
       </c>
       <c r="E70" s="1">
-        <v>3.098297536</v>
+        <v>4.34138717</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
-        <v>3.9689963270000002</v>
+        <v>7.7207570499999996</v>
       </c>
       <c r="C71" s="1">
-        <v>6.3897719009999996</v>
+        <v>5.3659186800000001</v>
       </c>
       <c r="D71" s="1">
-        <v>6.5149505169999999</v>
+        <v>6.7219731400000002</v>
       </c>
       <c r="E71" s="1">
-        <v>4.4684802570000004</v>
+        <v>4.0110919300000001</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
-        <v>6.6964544220000004</v>
+        <v>4.0084168399999998</v>
       </c>
       <c r="C72" s="1">
-        <v>2.6730209070000002</v>
+        <v>2.43509536</v>
       </c>
       <c r="D72" s="1">
-        <v>5.2016756390000003</v>
+        <v>7.13675733</v>
       </c>
       <c r="E72" s="1">
-        <v>5.3518272160000002</v>
+        <v>5.43985728</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <v>5.1832983209999997</v>
+        <v>6.1524165799999997</v>
       </c>
       <c r="C73" s="1">
-        <v>5.1355937450000004</v>
+        <v>4.1358925400000004</v>
       </c>
       <c r="D73" s="1">
-        <v>2.9434945159999999</v>
+        <v>5.8208611599999998</v>
       </c>
       <c r="E73" s="1">
-        <v>4.10411138</v>
+        <v>4.6212252899999999</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
-        <v>2.0293837780000001</v>
+        <v>5.9161455299999997</v>
       </c>
       <c r="C74" s="1">
-        <v>2.975891136</v>
+        <v>7.7382133399999997</v>
       </c>
       <c r="D74" s="1">
-        <v>4.0303163059999996</v>
+        <v>6.0726943100000002</v>
       </c>
       <c r="E74" s="1">
-        <v>2.4941545939999998</v>
+        <v>2.8674522800000002</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
-        <v>4.2540886469999997</v>
+        <v>6.3898355699999998</v>
       </c>
       <c r="C75" s="1">
-        <v>4.7851375640000002</v>
+        <v>6.3560635799999998</v>
       </c>
       <c r="D75" s="1">
-        <v>5.7864980099999999</v>
+        <v>2.73936951</v>
       </c>
       <c r="E75" s="1">
-        <v>7.2364790909999996</v>
+        <v>3.1118784000000002</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
-        <v>1.8573324959999999</v>
+        <v>1.8563334499999999</v>
       </c>
       <c r="C76" s="1">
-        <v>3.8151126579999999</v>
+        <v>5.2629070200000001</v>
       </c>
       <c r="D76" s="1">
-        <v>4.8024521599999996</v>
+        <v>3.92323493</v>
       </c>
       <c r="E76" s="1">
-        <v>5.0996219490000003</v>
+        <v>4.5272040999999996</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
-        <v>3.4557582029999998</v>
+        <v>7.1707467100000004</v>
       </c>
       <c r="C77" s="1">
-        <v>2.195899652</v>
+        <v>5.6375625300000003</v>
       </c>
       <c r="D77" s="1">
-        <v>3.9236584219999999</v>
+        <v>3.0084817799999999</v>
       </c>
       <c r="E77" s="1">
-        <v>6.9458404810000003</v>
+        <v>3.36014488</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
-        <v>2.5943925499999998</v>
+        <v>7.9005545399999999</v>
       </c>
       <c r="C78" s="1">
-        <v>2.4424797690000002</v>
+        <v>6.6085256399999999</v>
       </c>
       <c r="D78" s="1">
-        <v>6.019006976</v>
+        <v>5.5834993500000003</v>
       </c>
       <c r="E78" s="1">
-        <v>3.8723311210000002</v>
+        <v>6.0981603</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
-        <v>0.30102999600000002</v>
+        <v>2.1423135000000002</v>
       </c>
       <c r="C79" s="1">
-        <v>6.3442633419999996</v>
+        <v>7.2422527099999998</v>
       </c>
       <c r="D79" s="1">
-        <v>5.7268925839999998</v>
+        <v>5.3657578800000003</v>
       </c>
       <c r="E79" s="1">
-        <v>4.1136091510000004</v>
+        <v>3.3131994599999999</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
-        <v>6.6357620280000003</v>
+        <v>2.9376217900000001</v>
       </c>
       <c r="C80" s="1">
-        <v>5.3133757260000003</v>
+        <v>4.5852099400000004</v>
       </c>
       <c r="D80" s="1">
-        <v>5.1893527329999998</v>
+        <v>4.76622083</v>
       </c>
       <c r="E80" s="1">
-        <v>5.1304077530000001</v>
+        <v>6.5425879800000004</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
-        <v>8.5602625250000006</v>
+        <v>7.4857929700000003</v>
       </c>
       <c r="C81" s="1">
-        <v>4.0451664479999998</v>
+        <v>4.5894005099999999</v>
       </c>
       <c r="D81" s="1">
-        <v>2.7371926430000002</v>
+        <v>6.03097393</v>
       </c>
       <c r="E81" s="1">
-        <v>2.4698220160000002</v>
+        <v>3.9883998799999998</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
-        <v>6.9065068939999996</v>
+        <v>3.4460004</v>
       </c>
       <c r="C82" s="1">
-        <v>5.3134917939999999</v>
+        <v>5.5928397600000004</v>
       </c>
       <c r="D82" s="1">
-        <v>3.2683439139999999</v>
+        <v>7.0540233700000003</v>
       </c>
       <c r="E82" s="1">
-        <v>4.6079587269999998</v>
+        <v>6.5688199100000002</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
-        <v>7.160827673</v>
+        <v>6.4299489000000003</v>
       </c>
       <c r="C83" s="1">
-        <v>3.6229389689999998</v>
+        <v>4.8505603500000003</v>
       </c>
       <c r="D83" s="1">
-        <v>5.7117406040000001</v>
+        <v>4.4991722999999997</v>
       </c>
       <c r="E83" s="1">
-        <v>3.0519239159999998</v>
+        <v>5.8506521100000004</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
-        <v>5.9840756820000003</v>
+        <v>4.05643888</v>
       </c>
       <c r="C84" s="1">
-        <v>2.3820170429999998</v>
+        <v>3.9042172499999999</v>
       </c>
       <c r="D84" s="1">
-        <v>5.4405911119999999</v>
+        <v>5.2146825799999998</v>
       </c>
       <c r="E84" s="1">
-        <v>5.4396784130000002</v>
+        <v>7.0746784800000002</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
-        <v>7.1767049759999999</v>
+        <v>4.61306349</v>
       </c>
       <c r="C85" s="1">
-        <v>6.6255350980000003</v>
+        <v>5.2415449599999997</v>
       </c>
       <c r="D85" s="1">
-        <v>6.9276170090000004</v>
+        <v>3.90948297</v>
       </c>
       <c r="E85" s="1">
-        <v>4.6289607999999998</v>
+        <v>4.1606126999999997</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
-        <v>5.8367948739999997</v>
+        <v>5.1206577199999996</v>
       </c>
       <c r="C86" s="1">
-        <v>5.4755375390000003</v>
+        <v>3.4455756399999999</v>
       </c>
       <c r="D86" s="1">
-        <v>6.5252683789999999</v>
+        <v>3.3121005499999998</v>
       </c>
       <c r="E86" s="1">
-        <v>5.109224083</v>
+        <v>5.2566181299999997</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
-        <v>7.8243293710000001</v>
+        <v>5.0256024300000002</v>
       </c>
       <c r="C87" s="1">
-        <v>2.9180303369999998</v>
+        <v>6.40469884</v>
       </c>
       <c r="D87" s="1">
-        <v>5.9507352100000004</v>
+        <v>7.6258909499999996</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
-        <v>6.8837333010000004</v>
+        <v>6.4107824400000002</v>
       </c>
       <c r="C88" s="1">
-        <v>7.7411030509999996</v>
+        <v>5.7023958300000004</v>
       </c>
       <c r="D88" s="1">
-        <v>6.0352263529999997</v>
+        <v>4.1736865200000004</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
-        <v>2.3443922740000001</v>
+        <v>2.77374169</v>
       </c>
       <c r="C89" s="1">
-        <v>6.3962500990000004</v>
+        <v>4.8885384500000004</v>
       </c>
       <c r="D89" s="1">
-        <v>5.6442435560000002</v>
+        <v>5.9865639799999997</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
-        <v>2.8536982119999998</v>
+        <v>3.9146689499999998</v>
       </c>
       <c r="C90" s="1">
-        <v>5.0342714099999997</v>
+        <v>4.5881745799999996</v>
       </c>
       <c r="D90" s="1">
-        <v>6.0589021970000001</v>
+        <v>4.1439317600000001</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
-        <v>7.791462686</v>
+        <v>7.1156658500000001</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1">
-        <v>4.7350476989999999</v>
+        <v>5.2224617799999997</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
-        <v>6.3547760860000002</v>
+        <v>4.49143911</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1">
-        <v>3.0273496080000002</v>
+        <v>4.4215044399999996</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
-        <v>5.5939912229999997</v>
+        <v>3.9848115200000001</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1">
-        <v>5.5834923620000003</v>
+        <v>4.35206304</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
-        <v>7.1636868040000001</v>
+        <v>5.9363788</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1">
-        <v>3.9652487509999998</v>
+        <v>2.6734328700000001</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
-        <v>5.1312239630000001</v>
+        <v>3.0803957300000002</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
-        <v>4.783260233</v>
+        <v>6.7127417400000002</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
-        <v>5.631620292</v>
+        <v>2.26192568</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
-        <v>6.6759544980000003</v>
+        <v>4.8949093000000001</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
-        <v>4.1820721040000004</v>
+        <v>2.5698314600000001</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
-        <v>4.4563508479999996</v>
+        <v>2.6251068800000001</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
-        <v>6.637243593</v>
+        <v>5.8026146199999999</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
-        <v>2.9439888750000001</v>
+        <v>1.24696542</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -6158,7 +6158,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
-        <v>5.0792138170000003</v>
+        <v>4.1536775600000002</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
-        <v>4.8384901769999997</v>
+        <v>6.4084592100000002</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
-        <v>7.9067261350000004</v>
+        <v>3.4641163800000001</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
-        <v>2.1553360370000001</v>
+        <v>4.8462339600000002</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6190,11 +6190,17 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
-        <v>5.6522395699999999</v>
+        <v>5.5229771799999998</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6574,8 +6580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B64A7-69DF-674A-AEFE-D91F5751CF04}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6699,7 +6705,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>-0.26069999999999999</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -6727,7 +6735,7 @@
         <v>-0.254</v>
       </c>
       <c r="M5" s="1">
-        <v>0.30299999999999999</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -6735,7 +6743,7 @@
         <v>-0.24</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.316</v>
+        <v>0.32590000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -6769,7 +6777,7 @@
         <v>-0.23699999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.2056</v>
+        <v>0.20019999999999999</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6827,7 +6835,7 @@
         <v>-0.44700000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.94230000000000003</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6835,7 +6843,7 @@
         <v>-0.222</v>
       </c>
       <c r="I9" s="1">
-        <v>0.92810000000000004</v>
+        <v>0.86939999999999995</v>
       </c>
       <c r="J9" s="1">
         <v>0.51</v>
@@ -6845,7 +6853,7 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.87260000000000004</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -6853,7 +6861,7 @@
         <v>-0.45</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.93600000000000005</v>
+        <v>0.91220000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -6868,7 +6876,7 @@
         <v>-0.40799999999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.96619999999999995</v>
+        <v>0.93740000000000001</v>
       </c>
       <c r="F10" s="1">
         <v>0.2</v>
@@ -6878,7 +6886,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>0.95620000000000005</v>
+        <v>0.91190000000000004</v>
       </c>
       <c r="J10" s="1">
         <v>0.51500000000000001</v>
@@ -6888,7 +6896,7 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <v>0.95399999999999996</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -6898,7 +6906,7 @@
         <v>-0.47</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.96699999999999997</v>
+        <v>0.92679999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -6963,7 +6971,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>-0.21210000000000001</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
